--- a/biology/Botanique/Salvinia_cucullata/Salvinia_cucullata.xlsx
+++ b/biology/Botanique/Salvinia_cucullata/Salvinia_cucullata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salvinia cucullata est une espèce de plantes du genre Salvinia et de la famille des Salviniaceae originaire d'Australie. C'est une fougère aquatique invasive. C'est une plante flottante libre, non ancrée au sol.
 </t>
